--- a/Workbooks/Book1.xlsx
+++ b/Workbooks/Book1.xlsx
@@ -24,15 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>http://thedemosite.co.uk</t>
+  </si>
+  <si>
+    <t>MyReport.html</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,13 +76,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,28 +367,35 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>